--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -46,28 +46,28 @@
     <t>INFO:AN</t>
   </si>
   <si>
+    <t>FORMAT:Sample1:DP</t>
+  </si>
+  <si>
     <t>FORMAT:Sample1:GT</t>
   </si>
   <si>
-    <t>FORMAT:Sample1:DP</t>
-  </si>
-  <si>
     <t>FORMAT:Sample1:GQ</t>
   </si>
   <si>
+    <t>FORMAT:Sample2:DP</t>
+  </si>
+  <si>
     <t>FORMAT:Sample2:GT</t>
   </si>
   <si>
-    <t>FORMAT:Sample2:DP</t>
-  </si>
-  <si>
     <t>FORMAT:Sample2:GQ</t>
   </si>
   <si>
+    <t>FORMAT:Sample3:DP</t>
+  </si>
+  <si>
     <t>FORMAT:Sample3:GT</t>
-  </si>
-  <si>
-    <t>FORMAT:Sample3:DP</t>
   </si>
   <si>
     <t>FORMAT:Sample3:GQ</t>
@@ -575,29 +575,29 @@
       <c r="J2">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
       </c>
       <c r="M2">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
       </c>
       <c r="P2">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
-      </c>
-      <c r="R2">
-        <v>30</v>
       </c>
       <c r="S2">
         <v>50</v>
@@ -631,29 +631,29 @@
       <c r="J3">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3">
-        <v>22</v>
-      </c>
       <c r="M3">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3">
-        <v>40</v>
       </c>
       <c r="P3">
         <v>60</v>
       </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3">
+      <c r="Q3">
         <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
       </c>
       <c r="S3">
         <v>48</v>
@@ -687,29 +687,29 @@
       <c r="J4">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
       </c>
       <c r="M4">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
         <v>34</v>
-      </c>
-      <c r="O4">
-        <v>42</v>
       </c>
       <c r="P4">
         <v>56</v>
       </c>
-      <c r="Q4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
         <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
       </c>
       <c r="S4">
         <v>45</v>
@@ -743,29 +743,29 @@
       <c r="J5">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
       </c>
       <c r="M5">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
         <v>33</v>
-      </c>
-      <c r="O5">
-        <v>24</v>
       </c>
       <c r="P5">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
         <v>36</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
       </c>
       <c r="S5">
         <v>40</v>
@@ -799,29 +799,29 @@
       <c r="J6">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6">
+      <c r="K6">
         <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
       </c>
       <c r="M6">
         <v>42</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
         <v>34</v>
-      </c>
-      <c r="O6">
-        <v>35</v>
       </c>
       <c r="P6">
         <v>50</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
         <v>36</v>
-      </c>
-      <c r="R6">
-        <v>40</v>
       </c>
       <c r="S6">
         <v>55</v>
@@ -855,29 +855,29 @@
       <c r="J7">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7">
+      <c r="K7">
         <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
       </c>
       <c r="M7">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7">
+      <c r="N7">
         <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
       </c>
       <c r="P7">
         <v>45</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
         <v>33</v>
-      </c>
-      <c r="R7">
-        <v>20</v>
       </c>
       <c r="S7">
         <v>30</v>
@@ -911,29 +911,29 @@
       <c r="J8">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
       </c>
       <c r="M8">
         <v>45</v>
       </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8">
+      <c r="N8">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
         <v>35</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
         <v>36</v>
-      </c>
-      <c r="R8">
-        <v>38</v>
       </c>
       <c r="S8">
         <v>60</v>
@@ -967,29 +967,29 @@
       <c r="J9">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9">
+      <c r="K9">
         <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
       </c>
       <c r="M9">
         <v>40</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
         <v>33</v>
-      </c>
-      <c r="O9">
-        <v>27</v>
       </c>
       <c r="P9">
         <v>42</v>
       </c>
-      <c r="Q9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9">
+      <c r="Q9">
         <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
       </c>
       <c r="S9">
         <v>42</v>
@@ -1023,29 +1023,29 @@
       <c r="J10">
         <v>45</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
       <c r="M10">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10">
+      <c r="N10">
         <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
       </c>
       <c r="P10">
         <v>47</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
         <v>34</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
       </c>
       <c r="S10">
         <v>45</v>
@@ -1079,29 +1079,29 @@
       <c r="J11">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
         <v>36</v>
-      </c>
-      <c r="L11">
-        <v>28</v>
       </c>
       <c r="M11">
         <v>42</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
         <v>33</v>
-      </c>
-      <c r="O11">
-        <v>29</v>
       </c>
       <c r="P11">
         <v>45</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
         <v>36</v>
-      </c>
-      <c r="R11">
-        <v>29</v>
       </c>
       <c r="S11">
         <v>45</v>
